--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5191,4 +5192,2148 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7336,4 +7337,6710 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.3972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.4937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.3869</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.5091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5317</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3747</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5748</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5535</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4972</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1981</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0433</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9796</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8492</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8411</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7985</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7898</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6852</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6846</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6398</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5851</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4285</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>39.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14043,4 +14044,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14052,7 +14053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14063,17 +14064,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14083,14 +14104,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110.97</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.3180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14099,14 +14142,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.39</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14115,14 +14180,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.46</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14131,13 +14218,5045 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.5060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.4989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.0435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5649</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9968</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2772</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1798</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1334</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9938</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9618</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8960</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6730</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5678</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4528</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3356</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>175</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19155,7 +19156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19166,17 +19167,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19186,14 +19207,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.12</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -19202,14 +19245,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>175</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110.97</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -19218,14 +19283,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.39</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -19234,14 +19321,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.46</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -19250,13 +19359,4265 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9769</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2399</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8776</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3870</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2956</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2719</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0976</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0478</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7880</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7493</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7171</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4550</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>45.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23500,7 +23501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23511,17 +23512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23531,14 +23552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>113</v>
-      </c>
-      <c r="D2" t="n">
-        <v>87.87</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -23547,14 +23590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.12</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -23563,14 +23628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.97</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -23579,14 +23666,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.39</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -23595,14 +23704,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.46</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -23611,13 +23742,2689 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>157.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>49.48</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>87.87</v>
+        <v>49.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>105.12</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>110.97</v>
+        <v>105.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>19.39</v>
+        <v>110.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>21.46</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.69</v>
       </c>
     </row>
@@ -600,6 +617,2228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>72.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3389,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7733,7 +9972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12835,7 +15074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19541,7 +21780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21685,7 +23924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23793,7 +26032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/601877-正泰电器.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>14.79</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>49.48</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>87.87</v>
+        <v>49.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>105.12</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="D6" t="n">
-        <v>110.97</v>
+        <v>105.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D7" t="n">
-        <v>19.39</v>
+        <v>110.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>21.46</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2670 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>68</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3274,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝裕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012946</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝裕混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2838,7 +7489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5628,7 +10279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9972,7 +14623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15074,7 +19725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21780,7 +26431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23924,7 +28575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26030,2644 +30681,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160916</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0478</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1654</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8766</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8168</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3067</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2286</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成精选增值混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8478</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成积极成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8458</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7032</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5990</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5852</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4432</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4279</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4008</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3976</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3976</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519993</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信增利动态策略混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>75.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3849</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001144</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成互联网思维混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3217</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>58.61</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3077</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3041</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2954</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2433</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2265</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004926</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2193</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1470</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1417</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000587</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1254</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004927</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1188</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>770001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>德邦优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006167</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010301</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008846</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>090009</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>大成行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>010302</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006168</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>160415</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>华安量化多因子混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>004680</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>006190</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>